--- a/medicine/Pharmacie/Uncaria_tomentosa/Uncaria_tomentosa.xlsx
+++ b/medicine/Pharmacie/Uncaria_tomentosa/Uncaria_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uncaria tomentosa, dite Liane du Pérou, est une espèce de plantes à fleurs de la famille des Rubiaceae. C'est une liane originaire du Pérou. Elle pousse sur les terres vierges de la forêt amazonienne, mais aussi sur des terres de culture suffisamment reposées.
 Elle est appelée en espagnol « Uña de gato » (griffe de chat) à cause des petites stipules en forme de griffes situées à la base de ses feuilles.
@@ -515,9 +527,11 @@
           <t>Médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est utilisée en médecine traditionnelle par les Ashaninka, un groupe ethnique originaire de l'Amazonie péruvienne, pour soigner les plaies profondes, pour soulager les douleurs gastro-intestinales, articulaires[1] et osseuses, les reins, et pour le traitement des femmes après l'accouchement.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est utilisée en médecine traditionnelle par les Ashaninka, un groupe ethnique originaire de l'Amazonie péruvienne, pour soigner les plaies profondes, pour soulager les douleurs gastro-intestinales, articulaires et osseuses, les reins, et pour le traitement des femmes après l'accouchement.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Médecine moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis sa découverte par la médecine moderne, la liane du Pérou est utilisée pour traiter les maladies dégénératives telles que cancers et tumeurs[2],[3] ou la maladie de Lyme[4] et la dégénérescence de la mémoire[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa découverte par la médecine moderne, la liane du Pérou est utilisée pour traiter les maladies dégénératives telles que cancers et tumeurs, ou la maladie de Lyme et la dégénérescence de la mémoire.
 </t>
         </is>
       </c>
